--- a/NformTester/NformTester/keywordscripts/TST1175_NformG2SupportVelocityDevices.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1175_NformG2SupportVelocityDevices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -3804,7 +3804,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Liebert MPX/MPH"</t>
+    <t>"Liebert MPX/MPH - RPC1000"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4342,14 +4342,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="35.25" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
